--- a/src/main/resources/tp/_export_declaration_form.xlsx
+++ b/src/main/resources/tp/_export_declaration_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B0A31-E0EB-499F-A97C-0A9EE5A838E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA5F75-4BCE-43E5-A428-DF6ADBFDA712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>主单号</t>
   </si>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{{$fe:list2 t.main_bill_no</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -295,6 +291,17 @@
   <si>
     <t>t.entry_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.xxxxx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.xxxx}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.xxxx</t>
   </si>
 </sst>
 </file>
@@ -687,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -732,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -750,16 +757,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>10</v>
@@ -805,6 +812,9 @@
       <c r="M2" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="O2" t="s">
         <v>24</v>
       </c>
@@ -829,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1021"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,12 +965,41 @@
       <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
       <c r="L2" t="s">
         <v>41</v>
       </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" t="s">
+        <v>83</v>
+      </c>
       <c r="S2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
       </c>
       <c r="U2" t="s">
         <v>42</v>
@@ -969,7 +1008,7 @@
         <v>70</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -26497,7 +26536,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>

--- a/src/main/resources/tp/_export_declaration_form.xlsx
+++ b/src/main/resources/tp/_export_declaration_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FA5F75-4BCE-43E5-A428-DF6ADBFDA712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB74B621-8FD8-4561-8139-02C14D820603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -319,11 +319,13 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -839,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1021"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,7 +943,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -26496,8 +26498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26535,7 +26537,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="2" t="s">

--- a/src/main/resources/tp/_export_declaration_form.xlsx
+++ b/src/main/resources/tp/_export_declaration_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12668F06-5663-4F31-921A-D950A700D268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE81A8A-50CE-4A6A-8FF0-7A4C12A22DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe:list2 t.main_bill_no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>到货日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -302,6 +298,10 @@
   </si>
   <si>
     <t>t.xxxx</t>
+  </si>
+  <si>
+    <t>{{$fe:list2 t.party_bill_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -717,10 +717,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -735,16 +735,16 @@
         <v>9</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>10</v>
@@ -791,7 +791,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -944,40 +944,40 @@
         <v>40</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U2" t="s">
         <v>42</v>
@@ -986,7 +986,7 @@
         <v>70</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -26474,8 +26474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26513,8 +26513,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>72</v>
+      <c r="A2" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>

--- a/src/main/resources/tp/_export_declaration_form.xlsx
+++ b/src/main/resources/tp/_export_declaration_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\BP2\BP\src\main\resources\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE81A8A-50CE-4A6A-8FF0-7A4C12A22DCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E53EB0D-05A3-4E7E-8511-F4CC91B05272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>主单号</t>
   </si>
@@ -303,12 +303,19 @@
     <t>{{$fe:list2 t.party_bill_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>转关运输工具名称</t>
+  </si>
+  <si>
+    <t>t.trans_traf_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -342,6 +349,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +414,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,10 +711,10 @@
     <col min="12" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="18" max="18" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,11 +766,14 @@
       <c r="Q1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -803,6 +826,9 @@
         <v>26</v>
       </c>
       <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -26474,7 +26500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G1119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/tp/_export_declaration_form.xlsx
+++ b/src/main/resources/tp/_export_declaration_form.xlsx
@@ -156,7 +156,7 @@
     <t>发件人国别</t>
   </si>
   <si>
-    <t>发货人姓名</t>
+    <t>发件人姓名</t>
   </si>
   <si>
     <t>收件人姓名</t>
@@ -317,24 +317,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -360,9 +348,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,15 +362,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,7 +383,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,67 +399,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -480,7 +414,69 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,16 +490,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -519,13 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,25 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,49 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,13 +561,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,25 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,31 +657,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,18 +734,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -780,9 +781,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,21 +795,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +836,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,133 +848,133 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,17 +985,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1481,8 +1469,8 @@
   <sheetPr/>
   <dimension ref="A1:AC1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
